--- a/me-docs/11.Xay-dung-chuc-nang-filter.xlsx
+++ b/me-docs/11.Xay-dung-chuc-nang-filter.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2B0242-D645-4DAE-95E1-BB0503321B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDAEFDD-DB8A-43BF-8375-BC814555208F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="countByStatus" sheetId="1" r:id="rId1"/>
+    <sheet name="showButtonFilter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Bỏ Select Level</t>
   </si>
@@ -40,6 +41,12 @@
   </si>
   <si>
     <t>Access url to check</t>
+  </si>
+  <si>
+    <t>app\Helpers\Template.php</t>
+  </si>
+  <si>
+    <t>Acccess browser to check</t>
   </si>
 </sst>
 </file>
@@ -275,6 +282,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>81629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C930A1-9C21-4161-8597-EC0B5A53EE21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381001"/>
+          <a:ext cx="11268075" cy="6368128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>179581</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>27809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F736AB0-5B2E-4CED-819E-5DC4524DB871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7239000"/>
+          <a:ext cx="11152381" cy="6123809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247965</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F663DFE-636A-429C-B848-A3B4B286020A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="13716000"/>
+          <a:ext cx="11220764" cy="4791075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -540,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
@@ -575,4 +719,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012EFBBD-DE86-4B13-9A0A-67ED6A9F9890}">
+  <dimension ref="A2:A72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/11.Xay-dung-chuc-nang-filter.xlsx
+++ b/me-docs/11.Xay-dung-chuc-nang-filter.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDAEFDD-DB8A-43BF-8375-BC814555208F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E17791-4693-4E4E-B3F1-C0B3E7417A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="countByStatus" sheetId="1" r:id="rId1"/>
     <sheet name="showButtonFilter" sheetId="2" r:id="rId2"/>
+    <sheet name="link active" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Bỏ Select Level</t>
   </si>
@@ -47,6 +48,9 @@
   </si>
   <si>
     <t>Acccess browser to check</t>
+  </si>
+  <si>
+    <t>Http\Controllers\SliderController.php</t>
   </si>
 </sst>
 </file>
@@ -408,6 +412,187 @@
         <a:xfrm>
           <a:off x="609601" y="13716000"/>
           <a:ext cx="11220764" cy="4791075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>84343</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>37286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B222EFF-F310-4FA6-AE61-771CD45B368F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11057143" cy="6514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>151389</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB3866C-CB8B-4B54-B7C3-68465A794257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7429500"/>
+          <a:ext cx="10925175" cy="4342389"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>144543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24E4395E-644D-4393-9B1B-9F93E59D6A67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12192001"/>
+          <a:ext cx="10848975" cy="3954542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>184078</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6675B6-144A-4357-9BDA-4FD357847E33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16573500"/>
+          <a:ext cx="11766478" cy="6200775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -725,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012EFBBD-DE86-4B13-9A0A-67ED6A9F9890}">
   <dimension ref="A2:A72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
@@ -750,4 +935,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CAF3F6-8F54-4E3A-9CD1-8C45FD005F64}">
+  <dimension ref="A2:A87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/11.Xay-dung-chuc-nang-filter.xlsx
+++ b/me-docs/11.Xay-dung-chuc-nang-filter.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E17791-4693-4E4E-B3F1-C0B3E7417A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB683425-1E82-4836-8922-D5B26356261D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="countByStatus" sheetId="1" r:id="rId1"/>
     <sheet name="showButtonFilter" sheetId="2" r:id="rId2"/>
     <sheet name="link active" sheetId="3" r:id="rId3"/>
+    <sheet name="filter" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Bỏ Select Level</t>
   </si>
@@ -51,6 +52,9 @@
   </si>
   <si>
     <t>Http\Controllers\SliderController.php</t>
+  </si>
+  <si>
+    <t>app\Models\SliderModel.php</t>
   </si>
 </sst>
 </file>
@@ -593,6 +597,99 @@
         <a:xfrm>
           <a:off x="609600" y="16573500"/>
           <a:ext cx="11766478" cy="6200775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>293790</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1989BA7E-44EA-495C-866F-C08607117A84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11876190" cy="4561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>408293</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A239C988-88A4-4369-B5E2-85965B536CE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5334001"/>
+          <a:ext cx="11990693" cy="6172200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -941,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CAF3F6-8F54-4E3A-9CD1-8C45FD005F64}">
   <dimension ref="A2:A87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
@@ -971,4 +1068,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E660A36-3293-4D60-8991-71F9260E23F5}">
+  <dimension ref="A2:A28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>